--- a/2.3. Registro de Traslado de inventario/campos_unibell_traslado_inventario.xlsx
+++ b/2.3. Registro de Traslado de inventario/campos_unibell_traslado_inventario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAINING1\Desktop\EVOL - FIELDS\Intergración WMS\2.3. Registro de Traslado de inventario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DD93BD-9B42-4F2A-B435-2366FEB64AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74059C92-269C-453A-BF73-417809C3DC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C9569CFA-CC0E-4510-B81D-A697A083C165}"/>
   </bookViews>
@@ -159,10 +159,10 @@
     <t>ISSUEINVENTORYNUMBER</t>
   </si>
   <si>
-    <t>INVENTORYSTATUS</t>
-  </si>
-  <si>
-    <t>TOINVENTORYSTATUS</t>
+    <t>inventorystatus</t>
+  </si>
+  <si>
+    <t>toinventorystatus</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
   <dimension ref="A2:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/2.3. Registro de Traslado de inventario/campos_unibell_traslado_inventario.xlsx
+++ b/2.3. Registro de Traslado de inventario/campos_unibell_traslado_inventario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAINING1\Desktop\EVOL - FIELDS\Intergración WMS\2.3. Registro de Traslado de inventario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74059C92-269C-453A-BF73-417809C3DC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BD79B2-0A12-49BE-97C9-142FB42D1348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C9569CFA-CC0E-4510-B81D-A697A083C165}"/>
   </bookViews>
@@ -657,7 +657,7 @@
   <dimension ref="A2:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
